--- a/DB/OrderList.xlsx
+++ b/DB/OrderList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D374EF1-EDD2-4C02-9891-4971CB3FF1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D994D1-057B-40D6-A55F-0C32A09CAFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="4290" windowWidth="19950" windowHeight="15435" xr2:uid="{205B0061-9BEE-4565-B1D1-B3E6516F5320}"/>
+    <workbookView xWindow="1140" yWindow="3330" windowWidth="19950" windowHeight="15435" xr2:uid="{205B0061-9BEE-4565-B1D1-B3E6516F5320}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,10 +137,6 @@
   </si>
   <si>
     <t>DeepCool AK400</t>
-  </si>
-  <si>
-    <t>ASUS TUF Gaming B550M-PLUS STCOM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ASUS ROG STRIX B760-G GAMING WIFI D4</t>
@@ -366,6 +362,10 @@
   </si>
   <si>
     <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noctua NH-U12S redux</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,8 +795,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -815,7 +815,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
@@ -862,25 +862,25 @@
         <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -897,25 +897,25 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -932,25 +932,25 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -967,25 +967,25 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1002,25 +1002,25 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1037,25 +1037,25 @@
         <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1066,31 +1066,31 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1101,31 +1101,31 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1136,31 +1136,31 @@
         <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1171,31 +1171,31 @@
         <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1206,31 +1206,31 @@
         <v>7600</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
         <v>71</v>
       </c>
-      <c r="H12" t="s">
-        <v>72</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1241,31 +1241,31 @@
         <v>7600</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1276,31 +1276,31 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1311,31 +1311,31 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1346,31 +1346,31 @@
         <v>5600</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1381,31 +1381,31 @@
         <v>5600</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1422,25 +1422,25 @@
         <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" t="s">
         <v>71</v>
       </c>
-      <c r="H18" t="s">
-        <v>72</v>
-      </c>
       <c r="I18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1457,25 +1457,25 @@
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
       <c r="I19" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1492,25 +1492,25 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" t="s">
         <v>71</v>
       </c>
-      <c r="H20" t="s">
-        <v>72</v>
-      </c>
       <c r="I20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1527,25 +1527,25 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1562,25 +1562,25 @@
         <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
         <v>47</v>
       </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
       <c r="I22" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1597,25 +1597,25 @@
         <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1632,25 +1632,25 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1667,25 +1667,25 @@
         <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
       <c r="G25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" t="s">
         <v>71</v>
       </c>
-      <c r="H25" t="s">
-        <v>72</v>
-      </c>
       <c r="I25" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1702,25 +1702,25 @@
         <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1737,25 +1737,25 @@
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1772,25 +1772,25 @@
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="K28" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1807,25 +1807,25 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1842,25 +1842,25 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1877,25 +1877,25 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1909,28 +1909,28 @@
         <v>27</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" t="s">
         <v>71</v>
       </c>
-      <c r="H32" t="s">
-        <v>72</v>
-      </c>
       <c r="I32" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1941,31 +1941,31 @@
         <v>21</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
       <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
         <v>47</v>
       </c>
-      <c r="H33" t="s">
-        <v>48</v>
-      </c>
       <c r="I33" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/DB/OrderList.xlsx
+++ b/DB/OrderList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VR_Desktop\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D994D1-057B-40D6-A55F-0C32A09CAFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0833CE5-898E-457D-B057-FE6338772B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="3330" windowWidth="19950" windowHeight="15435" xr2:uid="{205B0061-9BEE-4565-B1D1-B3E6516F5320}"/>
+    <workbookView xWindow="19575" yWindow="2685" windowWidth="19950" windowHeight="15435" xr2:uid="{205B0061-9BEE-4565-B1D1-B3E6516F5320}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="80">
   <si>
     <t>cpu</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Lian Li GALAHAD II 240 ARGB</t>
-  </si>
-  <si>
-    <t>ID-COOLING Zoomflow 240XT ARGB</t>
   </si>
   <si>
     <t>Noctua NH-U12S redux</t>
@@ -357,23 +354,22 @@
     <t>CORSAIR SF750 80PLUS플래티넘</t>
   </si>
   <si>
-    <t>ID-COOLING Zoomflow 240XT ARGB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Noctua NH-U12S redux</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>darkFlash NEBULA DN-360D ARGB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +402,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
@@ -459,7 +462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -477,6 +480,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,8 +804,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -815,7 +824,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -830,13 +839,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
@@ -848,7 +857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -858,32 +867,32 @@
       <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>28</v>
+      <c r="D2" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -893,32 +902,32 @@
       <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>29</v>
+      <c r="D3" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -928,32 +937,32 @@
       <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -964,31 +973,31 @@
         <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -998,29 +1007,29 @@
       <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>28</v>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1034,31 +1043,31 @@
         <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1068,32 +1077,32 @@
       <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>28</v>
+      <c r="D8" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1103,29 +1112,29 @@
       <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>29</v>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1139,31 +1148,31 @@
         <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1173,29 +1182,29 @@
       <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>28</v>
+      <c r="D11" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1209,28 +1218,28 @@
         <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
         <v>70</v>
       </c>
-      <c r="H12" t="s">
-        <v>71</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1244,28 +1253,28 @@
         <v>22</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1279,28 +1288,28 @@
         <v>24</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1314,28 +1323,28 @@
         <v>25</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1349,31 +1358,31 @@
         <v>24</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1384,31 +1393,31 @@
         <v>25</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1418,32 +1427,32 @@
       <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" t="s">
         <v>70</v>
       </c>
-      <c r="H18" t="s">
-        <v>71</v>
-      </c>
       <c r="I18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1453,32 +1462,32 @@
       <c r="C19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>28</v>
+      <c r="D19" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1488,32 +1497,32 @@
       <c r="C20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" t="s">
         <v>70</v>
       </c>
-      <c r="H20" t="s">
-        <v>71</v>
-      </c>
       <c r="I20" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1523,32 +1532,32 @@
       <c r="C21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>28</v>
+      <c r="D21" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1558,32 +1567,32 @@
       <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1593,32 +1602,32 @@
       <c r="C23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>29</v>
+      <c r="D23" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1628,32 +1637,32 @@
       <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1663,32 +1672,32 @@
       <c r="C25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>29</v>
+      <c r="D25" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
       <c r="G25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" t="s">
         <v>70</v>
       </c>
-      <c r="H25" t="s">
-        <v>71</v>
-      </c>
       <c r="I25" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1698,32 +1707,32 @@
       <c r="C26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>29</v>
+      <c r="D26" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1733,32 +1742,32 @@
       <c r="C27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>28</v>
+      <c r="D27" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1768,32 +1777,32 @@
       <c r="C28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>29</v>
+      <c r="D28" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="K28" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1803,32 +1812,32 @@
       <c r="C29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1838,29 +1847,29 @@
       <c r="C30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1874,31 +1883,31 @@
         <v>26</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1908,29 +1917,29 @@
       <c r="C32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>78</v>
+      <c r="D32" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" t="s">
         <v>70</v>
       </c>
-      <c r="H32" t="s">
-        <v>71</v>
-      </c>
       <c r="I32" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1941,31 +1950,31 @@
         <v>21</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
       <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
         <v>46</v>
       </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
       <c r="I33" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
